--- a/data/hotels_by_city/Houston/Houston_shard_174.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_174.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="280">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d12103649-Reviews-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
   </si>
   <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Days-Inn-Suites-By-Wyndham-Houston-NW-Cypress.h17404339.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,716 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r595270045-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>12103649</t>
+  </si>
+  <si>
+    <t>595270045</t>
+  </si>
+  <si>
+    <t>07/11/2018</t>
+  </si>
+  <si>
+    <t>Perfect stay</t>
+  </si>
+  <si>
+    <t>It was a great stay everything was perfect very clean.. everyone was nice and polite I recommend this hotel. I drove a long time and it was worth every minute of it when I got there. The room was a nice size and very comfortable.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r579952974-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>579952974</t>
+  </si>
+  <si>
+    <t>05/13/2018</t>
+  </si>
+  <si>
+    <t>Very Pleased</t>
+  </si>
+  <si>
+    <t>Great service, clean room with fridge &amp; microwave and easy check-in.Customer service was very helpful with needs. Bed was comfortable with plenty of room. Great price for the quality and service you get.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r578847603-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>578847603</t>
+  </si>
+  <si>
+    <t>05/08/2018</t>
+  </si>
+  <si>
+    <t>My secong good stay in Days Inn</t>
+  </si>
+  <si>
+    <t>Last year I staid at this Days Inn (10650 Huffmeister Rd, Houston). I was very impressed with this low fare hotel and the high quality of the service provided.This year I decided to return, despite of the prices rose a lot (almost double I paid last year).But, the experience was very good again. Clean and spacious room, convenient complimentary breakfast and good location. Next year I'm planning to return to OTC and stay again in this Days Inn. I hope prices drop down...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r567701377-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>567701377</t>
+  </si>
+  <si>
+    <t>03/20/2018</t>
+  </si>
+  <si>
+    <t>Our stay at this hotel was due to damage to our home after...</t>
+  </si>
+  <si>
+    <t>Our stay at this hotel was due to damage to our home after Hurricane Harvey. Excellent customer service and great rooms. Stayed there for a maximum of 4 months and never had any issues. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>DJ_Chudasama, General Manager at Days Inn &amp; Suites by Wyndham Houston NW Cypress, responded to this reviewResponded April 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2018</t>
+  </si>
+  <si>
+    <t>Our stay at this hotel was due to damage to our home after Hurricane Harvey. Excellent customer service and great rooms. Stayed there for a maximum of 4 months and never had any issues. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r564968174-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>564968174</t>
+  </si>
+  <si>
+    <t>03/06/2018</t>
+  </si>
+  <si>
+    <t>BOOK THIS HOTEL !!!</t>
+  </si>
+  <si>
+    <t>This hotel made me feel like family at home very respectful very generous they also serve delicious breakfast also comfortable rooms. Also they are the best hotels I have been to and the way the staff treats each and every one young and grown.MoreShow less</t>
+  </si>
+  <si>
+    <t>DJ_Chudasama, General Manager at Days Inn &amp; Suites by Wyndham Houston NW Cypress, responded to this reviewResponded March 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2018</t>
+  </si>
+  <si>
+    <t>This hotel made me feel like family at home very respectful very generous they also serve delicious breakfast also comfortable rooms. Also they are the best hotels I have been to and the way the staff treats each and every one young and grown.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r564968052-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>564968052</t>
+  </si>
+  <si>
+    <t>Book this hotel it’s amazing!!!</t>
+  </si>
+  <si>
+    <t>Highly recommend this hotel. Clean rooms soft beds great breakfast and great customer service honestly you should book this hotel it’s really amazing how the staff is and the way they treat every person .</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r545314771-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>545314771</t>
+  </si>
+  <si>
+    <t>12/05/2017</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r545216559-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>545216559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was the cleanest day's inn I've ever stayed in. Staff was very friendly and helpful considering I'm not familiar at the area. </t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r544942994-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>544942994</t>
+  </si>
+  <si>
+    <t>12/03/2017</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>We stayed here for a week in September-October. It's a nice hotel. Rooms are nicely appointed and staff are friendly. Car park is big and well lit. It is an easy drive to a variety of local restaurants. The big plus is that it has a free breakfast including hot dishes. Rooms are a reasonable size.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r540824506-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>540824506</t>
+  </si>
+  <si>
+    <t>11/13/2017</t>
+  </si>
+  <si>
+    <t>0 if I could !</t>
+  </si>
+  <si>
+    <t>His review is way overdue ! 
+Horrible isn't the word for this one.... I was here for a business trip and my reservation was for 4 nights. First... check in... the girl was so unprofessional she had her kid running around the lobby with no shoes and needing to leave the counter to microwave a meal for him. ( I just don't see why you had to leave the counter to do this... not sure you should have your kid at work) I was 1 hour early for check in she told me She had rooms available but is making me wait to check me in.... (not giving me free time in my room without paying) I COULDNT BELIEVE THIS !!!!! Bugs on the wall.... let's not get my started on that. GROSS !! They didn't do anything to compensate.... I had to leave 1 night early due to an unexpected event (hotels.com was willing to give me my money back for the night as long as the hotel approved them refunding me) THE MANAGER WOULDNT HONOR IT WITHOUT PENALTY. I let them know 2 days prior that I needed to leave and they still denied the request. I was so upset.. I don't want to get into why I needed to leave just know I wouldn't have asked if I didn't need to go. The lady manager was so rude. And hotels.com APOLOGIZED to me many times because they...His review is way overdue ! Horrible isn't the word for this one.... I was here for a business trip and my reservation was for 4 nights. First... check in... the girl was so unprofessional she had her kid running around the lobby with no shoes and needing to leave the counter to microwave a meal for him. ( I just don't see why you had to leave the counter to do this... not sure you should have your kid at work) I was 1 hour early for check in she told me She had rooms available but is making me wait to check me in.... (not giving me free time in my room without paying) I COULDNT BELIEVE THIS !!!!! Bugs on the wall.... let's not get my started on that. GROSS !! They didn't do anything to compensate.... I had to leave 1 night early due to an unexpected event (hotels.com was willing to give me my money back for the night as long as the hotel approved them refunding me) THE MANAGER WOULDNT HONOR IT WITHOUT PENALTY. I let them know 2 days prior that I needed to leave and they still denied the request. I was so upset.. I don't want to get into why I needed to leave just know I wouldn't have asked if I didn't need to go. The lady manager was so rude. And hotels.com APOLOGIZED to me many times because they were willing to honor my early departure but the manager wouldn't approve it... HORRIBLE EXPERIENCE I REALLY REALLY HOPE PEOPLE CONSIDER STAYING SOMEWHERE ELSE !! HOSPITALITY DIDNT EXSIST HERE !!!! WE NOR THE BUSINESS WILL BE COMING BACK TO SUCH AN AWFULLY RAN ESTABLISHMENT !! Horrible !!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>His review is way overdue ! 
+Horrible isn't the word for this one.... I was here for a business trip and my reservation was for 4 nights. First... check in... the girl was so unprofessional she had her kid running around the lobby with no shoes and needing to leave the counter to microwave a meal for him. ( I just don't see why you had to leave the counter to do this... not sure you should have your kid at work) I was 1 hour early for check in she told me She had rooms available but is making me wait to check me in.... (not giving me free time in my room without paying) I COULDNT BELIEVE THIS !!!!! Bugs on the wall.... let's not get my started on that. GROSS !! They didn't do anything to compensate.... I had to leave 1 night early due to an unexpected event (hotels.com was willing to give me my money back for the night as long as the hotel approved them refunding me) THE MANAGER WOULDNT HONOR IT WITHOUT PENALTY. I let them know 2 days prior that I needed to leave and they still denied the request. I was so upset.. I don't want to get into why I needed to leave just know I wouldn't have asked if I didn't need to go. The lady manager was so rude. And hotels.com APOLOGIZED to me many times because they...His review is way overdue ! Horrible isn't the word for this one.... I was here for a business trip and my reservation was for 4 nights. First... check in... the girl was so unprofessional she had her kid running around the lobby with no shoes and needing to leave the counter to microwave a meal for him. ( I just don't see why you had to leave the counter to do this... not sure you should have your kid at work) I was 1 hour early for check in she told me She had rooms available but is making me wait to check me in.... (not giving me free time in my room without paying) I COULDNT BELIEVE THIS !!!!! Bugs on the wall.... let's not get my started on that. GROSS !! They didn't do anything to compensate.... I had to leave 1 night early due to an unexpected event (hotels.com was willing to give me my money back for the night as long as the hotel approved them refunding me) THE MANAGER WOULDNT HONOR IT WITHOUT PENALTY. I let them know 2 days prior that I needed to leave and they still denied the request. I was so upset.. I don't want to get into why I needed to leave just know I wouldn't have asked if I didn't need to go. The lady manager was so rude. And hotels.com APOLOGIZED to me many times because they were willing to honor my early departure but the manager wouldn't approve it... HORRIBLE EXPERIENCE I REALLY REALLY HOPE PEOPLE CONSIDER STAYING SOMEWHERE ELSE !! HOSPITALITY DIDNT EXSIST HERE !!!! WE NOR THE BUSINESS WILL BE COMING BACK TO SUCH AN AWFULLY RAN ESTABLISHMENT !! Horrible !!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r536449585-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>536449585</t>
+  </si>
+  <si>
+    <t>10/27/2017</t>
+  </si>
+  <si>
+    <t>Looks like new</t>
+  </si>
+  <si>
+    <t>We were very pleased with the updated decor and overall cleanliness of the hotel. The staff was very helpful and friendly.  We will definitely stay at this Days Inn whenever we visit Cypress, Texas.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r534420204-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>534420204</t>
+  </si>
+  <si>
+    <t>10/19/2017</t>
+  </si>
+  <si>
+    <t>Staff very polite and friendly</t>
+  </si>
+  <si>
+    <t>Clean rooms and great staff. Breakfast served daily very clean area food nice and hot great selection. Room was clean had fridge and microwave, large area for the price. Free wi-fi and computer available near lobby area. Nice gym, laundry room and pool available all nice and clean.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r527275420-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>527275420</t>
+  </si>
+  <si>
+    <t>09/25/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r527156156-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>527156156</t>
+  </si>
+  <si>
+    <t>09/24/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r527131221-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>527131221</t>
+  </si>
+  <si>
+    <t>Good experience</t>
+  </si>
+  <si>
+    <t>The room was clean and the staff was friendly.  The only real complaint I have involves the high speed internet service. There is supposed to be high speed Wi-Fi available in your room.  Depending on the time of day, the service was hit or miss.  Typically from 5 PM to 11 PM the high speed service was virtually useless, either not responding when on or not letting you get on.  I reported the issue to the front desk and they attempted to fix with their provider but still no luck.  I assume it had something to do with my location on the 3rd floor because the internet service was fast and flawless in the lobby's business center.  MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was clean and the staff was friendly.  The only real complaint I have involves the high speed internet service. There is supposed to be high speed Wi-Fi available in your room.  Depending on the time of day, the service was hit or miss.  Typically from 5 PM to 11 PM the high speed service was virtually useless, either not responding when on or not letting you get on.  I reported the issue to the front desk and they attempted to fix with their provider but still no luck.  I assume it had something to do with my location on the 3rd floor because the internet service was fast and flawless in the lobby's business center.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r522993366-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>522993366</t>
+  </si>
+  <si>
+    <t>09/09/2017</t>
+  </si>
+  <si>
+    <t>Rooms good breakfast not so</t>
+  </si>
+  <si>
+    <t>The rooms were modern and clean, breakfast on the other hand was a disappointment. The selection wasn't great and on one of the mornings I was there the guy that was topping everything up was really really really slow... And when the selection is so minimal this is a problem. The next morning when the woman was topping it up it was fine</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r519710213-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>519710213</t>
+  </si>
+  <si>
+    <t>08/30/2017</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r517939364-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>517939364</t>
+  </si>
+  <si>
+    <t>08/27/2017</t>
+  </si>
+  <si>
+    <t>Very nice, modern, clean and bright ,</t>
+  </si>
+  <si>
+    <t>We were very impressed with all of the modern amenities and the cleanliness. Great place to stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r507593953-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>507593953</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t>Welcoming, kind and clean!</t>
+  </si>
+  <si>
+    <t>The managers and staff went out of their way to attend to their guests. They were very kind and always helpful. I would definitely recommend this hotel to anyone. We had never been in Texas before and they all helped us with our many questions and gave us great advice as we relocated our daughter to Texas! Thank you !!MoreShow less</t>
+  </si>
+  <si>
+    <t>DJ_Chudasama, General Manager at Days Inn &amp; Suites by Wyndham Houston NW Cypress, responded to this reviewResponded August 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2017</t>
+  </si>
+  <si>
+    <t>The managers and staff went out of their way to attend to their guests. They were very kind and always helpful. I would definitely recommend this hotel to anyone. We had never been in Texas before and they all helped us with our many questions and gave us great advice as we relocated our daughter to Texas! Thank you !!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r503657082-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>503657082</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>DJ_Chudasama, General Manager at Days Inn &amp; Suites by Wyndham Houston NW Cypress, responded to this reviewResponded July 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2017</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r502476669-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>502476669</t>
+  </si>
+  <si>
+    <t>07/16/2017</t>
+  </si>
+  <si>
+    <t>Excellent hotel .</t>
+  </si>
+  <si>
+    <t>We were in Houston for a family reunion. We were impressed for the service, cleanliness and value. We didn't have any problem. We will return soon. Thank you Days Inn for your hospitality!MoreShow less</t>
+  </si>
+  <si>
+    <t>DJ_Chudasama, General Manager at Days Inn &amp; Suites by Wyndham Houston NW Cypress, responded to this reviewResponded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2017</t>
+  </si>
+  <si>
+    <t>We were in Houston for a family reunion. We were impressed for the service, cleanliness and value. We didn't have any problem. We will return soon. Thank you Days Inn for your hospitality!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r501605796-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>501605796</t>
+  </si>
+  <si>
+    <t>07/13/2017</t>
+  </si>
+  <si>
+    <t>I reserved this Hotel online with a variety of others to...</t>
+  </si>
+  <si>
+    <t>I reserved this Hotel online with a variety of others to choose from. I chose this one because it allows you to reserve without a credit card on file. You have the option to pay when you arrive for your stay. The Hotel was so clean, the staff was Super nice and the location was perfect. Last but not least checkout is 12pm. Wow.. Loved it... They also had an amazing breakfast. I would definitely stay again.!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>DJ_Chudasama, General Manager at Days Inn &amp; Suites by Wyndham Houston NW Cypress, responded to this reviewResponded July 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2017</t>
+  </si>
+  <si>
+    <t>I reserved this Hotel online with a variety of others to choose from. I chose this one because it allows you to reserve without a credit card on file. You have the option to pay when you arrive for your stay. The Hotel was so clean, the staff was Super nice and the location was perfect. Last but not least checkout is 12pm. Wow.. Loved it... They also had an amazing breakfast. I would definitely stay again.!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r500840118-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>500840118</t>
+  </si>
+  <si>
+    <t>07/11/2017</t>
+  </si>
+  <si>
+    <t>The managementThe staffAll the best reallyI feel like...</t>
+  </si>
+  <si>
+    <t>The managementThe staffAll the best reallyI feel like home I been 3 months thereReally recomended MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>DJ_Chudasama, General Manager at Days Inn &amp; Suites by Wyndham Houston NW Cypress, responded to this reviewResponded July 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2017</t>
+  </si>
+  <si>
+    <t>The managementThe staffAll the best reallyI feel like home I been 3 months thereReally recomended More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r497728118-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>497728118</t>
+  </si>
+  <si>
+    <t>07/01/2017</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>DJ_Chudasama, General Manager at Days Inn &amp; Suites by Wyndham Houston NW Cypress, responded to this reviewResponded July 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r495896936-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>495896936</t>
+  </si>
+  <si>
+    <t>06/25/2017</t>
+  </si>
+  <si>
+    <t>Very clean and friendly people</t>
+  </si>
+  <si>
+    <t>This is a brand new hotel. Very quiet.  Nice beds. Clean rooms. Can smell the new paint still. I would stay here again for sure. MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a brand new hotel. Very quiet.  Nice beds. Clean rooms. Can smell the new paint still. I would stay here again for sure. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r493781493-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>493781493</t>
+  </si>
+  <si>
+    <t>06/17/2017</t>
+  </si>
+  <si>
+    <t>Pleasant surprise</t>
+  </si>
+  <si>
+    <t>Such a beautiful (and brand new!) Days Inn.  Over the years, Days Inn has been considered a cheap hotel.  This economy hotel is not "cheap" in any means.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Such a beautiful (and brand new!) Days Inn.  Over the years, Days Inn has been considered a cheap hotel.  This economy hotel is not "cheap" in any means.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r489736437-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>489736437</t>
+  </si>
+  <si>
+    <t>06/01/2017</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r486992833-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>486992833</t>
+  </si>
+  <si>
+    <t>05/23/2017</t>
+  </si>
+  <si>
+    <t>Awesome Stay</t>
+  </si>
+  <si>
+    <t>We were in town for a wedding, Traveling with our 4 year old, there was a mix up with the booking and  when I brought it to the managers attention we were upgraded no charge, the Hotel is brand new , the paint smell was a  little strong in certain areas but not bad, the bed was outstanding and very comfortable, breakfast is the standard quick hotel breakfast but everyone was very friendly and accommodating . Pool was very clean and well maintained.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were in town for a wedding, Traveling with our 4 year old, there was a mix up with the booking and  when I brought it to the managers attention we were upgraded no charge, the Hotel is brand new , the paint smell was a  little strong in certain areas but not bad, the bed was outstanding and very comfortable, breakfast is the standard quick hotel breakfast but everyone was very friendly and accommodating . Pool was very clean and well maintained.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r486500026-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>486500026</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r483540766-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>483540766</t>
+  </si>
+  <si>
+    <t>05/11/2017</t>
+  </si>
+  <si>
+    <t>Visiting Family</t>
+  </si>
+  <si>
+    <t>We were visiting family in the area and this was the perfect location.  It was convenient to their home and had a variety of places near it.   The only issue was there were 4 of us in a room (2 adults and 2 kids.  We never had enough towels (only left 2 or 3) and never left any extra toilet paper.  We had asked for extra on these items but it was not left.    They do not have towels down by the pool so you need to either ask at the front desk or use yours from the room.  Other than that we did have a great stay.  MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>We were visiting family in the area and this was the perfect location.  It was convenient to their home and had a variety of places near it.   The only issue was there were 4 of us in a room (2 adults and 2 kids.  We never had enough towels (only left 2 or 3) and never left any extra toilet paper.  We had asked for extra on these items but it was not left.    They do not have towels down by the pool so you need to either ask at the front desk or use yours from the room.  Other than that we did have a great stay.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r482340476-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>482340476</t>
+  </si>
+  <si>
+    <t>05/07/2017</t>
+  </si>
+  <si>
+    <t>Best hotel</t>
+  </si>
+  <si>
+    <t>Best, nicest, super clean and wonderful staff. We stay here a lot and love it here! The manager/owner is wonderful treats us with a personal touch! MoreShow less</t>
+  </si>
+  <si>
+    <t>Best, nicest, super clean and wonderful staff. We stay here a lot and love it here! The manager/owner is wonderful treats us with a personal touch! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r482256741-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>482256741</t>
+  </si>
+  <si>
+    <t>Love it</t>
+  </si>
+  <si>
+    <t>Stay was great, room was very nice nd unique bed was sooo comfortable..breakfast was ok ..i will definitely stay there againMoreShow less</t>
+  </si>
+  <si>
+    <t>Stay was great, room was very nice nd unique bed was sooo comfortable..breakfast was ok ..i will definitely stay there againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r479812247-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>479812247</t>
+  </si>
+  <si>
+    <t>04/28/2017</t>
+  </si>
+  <si>
+    <t>Excellent lodging</t>
+  </si>
+  <si>
+    <t>New, clean, nice and would stay there anytime.  Good breakfast, good staff, and an excellent choice.  Great price.  You might pay two or three times the price for equivalent lodging.  Buy it!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>DJ_Chudasama, General Manager at Days Inn &amp; Suites by Wyndham Houston NW Cypress, responded to this reviewResponded April 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2017</t>
+  </si>
+  <si>
+    <t>New, clean, nice and would stay there anytime.  Good breakfast, good staff, and an excellent choice.  Great price.  You might pay two or three times the price for equivalent lodging.  Buy it!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r473258305-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>473258305</t>
+  </si>
+  <si>
+    <t>04/06/2017</t>
+  </si>
+  <si>
+    <t>Great...too short!</t>
+  </si>
+  <si>
+    <t>Great two day. Not what we expected. Contemporary/European feel. Very warm staff and also very helpful. I would have more selection for pillows.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great two day. Not what we expected. Contemporary/European feel. Very warm staff and also very helpful. I would have more selection for pillows.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r473206446-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>473206446</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t>Convenient location in Northwest Houston. Easy access to 290. Room and hotel was very clean and serviceableMoreShow less</t>
+  </si>
+  <si>
+    <t>Convenient location in Northwest Houston. Easy access to 290. Room and hotel was very clean and serviceableMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r473185435-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>473185435</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r471210440-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>471210440</t>
+  </si>
+  <si>
+    <t>03/29/2017</t>
+  </si>
+  <si>
+    <t>AMAZING NEW HOTEL!!!!</t>
+  </si>
+  <si>
+    <t>Great hotel for people on a budget who don't want to spend all their vacation money on a hotel but get everything you want. Check in was smooth with DJ_Chudasama, I also emailed him with some questions prior to arrival he responded quickly with the answers.  All hotel staff very friendly everyone spoke to me no matter what time I was coming or going at.  Breakfast was great hot and cold can't expect a full buffet for a quick breakfast that's included in the price, same staff working buffet both days always there helping keeping it clean and food fresh also interacting with customers?  Great that I was able to print my boarding passes prior to leaving for the airport.  Room was immaculate. Close to shopping and restaurant a great place for being able to get anywhere quickly if my daughter plays golf there again I will for sure book this hotel!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>DJ_Chudasama, General Manager at Days Inn &amp; Suites by Wyndham Houston NW Cypress, responded to this reviewResponded March 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2017</t>
+  </si>
+  <si>
+    <t>Great hotel for people on a budget who don't want to spend all their vacation money on a hotel but get everything you want. Check in was smooth with DJ_Chudasama, I also emailed him with some questions prior to arrival he responded quickly with the answers.  All hotel staff very friendly everyone spoke to me no matter what time I was coming or going at.  Breakfast was great hot and cold can't expect a full buffet for a quick breakfast that's included in the price, same staff working buffet both days always there helping keeping it clean and food fresh also interacting with customers?  Great that I was able to print my boarding passes prior to leaving for the airport.  Room was immaculate. Close to shopping and restaurant a great place for being able to get anywhere quickly if my daughter plays golf there again I will for sure book this hotel!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r470403425-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>470403425</t>
+  </si>
+  <si>
+    <t>03/26/2017</t>
+  </si>
+  <si>
+    <t>Bryana cyrus expierience</t>
+  </si>
+  <si>
+    <t>I was highly satisfied by the service and the coworkers, i have got checked in right away.the beds and bathroom was set up and very welcoming interior design.i love that they have a breakfast bar .that shows that they really careMoreShow less</t>
+  </si>
+  <si>
+    <t>DJ_Chudasama, General Manager at Days Inn &amp; Suites by Wyndham Houston NW Cypress, responded to this reviewResponded March 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2017</t>
+  </si>
+  <si>
+    <t>I was highly satisfied by the service and the coworkers, i have got checked in right away.the beds and bathroom was set up and very welcoming interior design.i love that they have a breakfast bar .that shows that they really careMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r469502060-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>469502060</t>
+  </si>
+  <si>
+    <t>03/22/2017</t>
+  </si>
+  <si>
+    <t>Visiting Friends</t>
+  </si>
+  <si>
+    <t>What a beautiful, new hotel at reasonable prices. We stayed at this hotel for 2 nights while we visited friends. The modern look is very attractive, and the high ceilings in the rooms makes the feel of much more space. The front desk staff was warm and friendly and tried to help in arranging our next stop on our trip, San Antonio. The buffet breakfast was the usual for hotels. Cheese omelets and bacon with make your own waffles. Coffee, juice, milk and bagels and Danish along with some fruit. Would highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>DJ_Chudasama, General Manager at Days Inn &amp; Suites by Wyndham Houston NW Cypress, responded to this reviewResponded March 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2017</t>
+  </si>
+  <si>
+    <t>What a beautiful, new hotel at reasonable prices. We stayed at this hotel for 2 nights while we visited friends. The modern look is very attractive, and the high ceilings in the rooms makes the feel of much more space. The front desk staff was warm and friendly and tried to help in arranging our next stop on our trip, San Antonio. The buffet breakfast was the usual for hotels. Cheese omelets and bacon with make your own waffles. Coffee, juice, milk and bagels and Danish along with some fruit. Would highly recommend this hotel.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1251,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1283,2656 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>81</v>
+      </c>
+      <c r="X6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>71</v>
+      </c>
+      <c r="O10" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>106</v>
+      </c>
+      <c r="O11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" t="s">
+        <v>111</v>
+      </c>
+      <c r="L12" t="s">
+        <v>112</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>113</v>
+      </c>
+      <c r="O12" t="s">
+        <v>114</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>113</v>
+      </c>
+      <c r="O13" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s"/>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>71</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" t="s">
+        <v>125</v>
+      </c>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s"/>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>71</v>
+      </c>
+      <c r="O15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>127</v>
+      </c>
+      <c r="J16" t="s">
+        <v>125</v>
+      </c>
+      <c r="K16" t="s">
+        <v>128</v>
+      </c>
+      <c r="L16" t="s">
+        <v>129</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>71</v>
+      </c>
+      <c r="O16" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>132</v>
+      </c>
+      <c r="J17" t="s">
+        <v>133</v>
+      </c>
+      <c r="K17" t="s">
+        <v>134</v>
+      </c>
+      <c r="L17" t="s">
+        <v>135</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>71</v>
+      </c>
+      <c r="O17" t="s">
+        <v>136</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J18" t="s">
+        <v>139</v>
+      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s"/>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>140</v>
+      </c>
+      <c r="O18" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>141</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J19" t="s">
+        <v>143</v>
+      </c>
+      <c r="K19" t="s">
+        <v>144</v>
+      </c>
+      <c r="L19" t="s">
+        <v>145</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>140</v>
+      </c>
+      <c r="O19" t="s">
+        <v>72</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>146</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>147</v>
+      </c>
+      <c r="J20" t="s">
+        <v>148</v>
+      </c>
+      <c r="K20" t="s">
+        <v>149</v>
+      </c>
+      <c r="L20" t="s">
+        <v>150</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>106</v>
+      </c>
+      <c r="O20" t="s">
+        <v>72</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>151</v>
+      </c>
+      <c r="X20" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>154</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>155</v>
+      </c>
+      <c r="J21" t="s">
+        <v>156</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s">
+        <v>157</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>106</v>
+      </c>
+      <c r="O21" t="s">
+        <v>72</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>158</v>
+      </c>
+      <c r="X21" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>161</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>162</v>
+      </c>
+      <c r="J22" t="s">
+        <v>163</v>
+      </c>
+      <c r="K22" t="s">
+        <v>164</v>
+      </c>
+      <c r="L22" t="s">
+        <v>165</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>106</v>
+      </c>
+      <c r="O22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>166</v>
+      </c>
+      <c r="X22" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>169</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>170</v>
+      </c>
+      <c r="J23" t="s">
+        <v>171</v>
+      </c>
+      <c r="K23" t="s">
+        <v>172</v>
+      </c>
+      <c r="L23" t="s">
+        <v>173</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>106</v>
+      </c>
+      <c r="O23" t="s">
+        <v>72</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>174</v>
+      </c>
+      <c r="X23" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>177</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>178</v>
+      </c>
+      <c r="J24" t="s">
+        <v>179</v>
+      </c>
+      <c r="K24" t="s">
+        <v>180</v>
+      </c>
+      <c r="L24" t="s">
+        <v>181</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>182</v>
+      </c>
+      <c r="O24" t="s">
+        <v>136</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>183</v>
+      </c>
+      <c r="X24" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>186</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>187</v>
+      </c>
+      <c r="J25" t="s">
+        <v>188</v>
+      </c>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s">
+        <v>157</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>189</v>
+      </c>
+      <c r="O25" t="s">
+        <v>114</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>190</v>
+      </c>
+      <c r="X25" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>192</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>193</v>
+      </c>
+      <c r="J26" t="s">
+        <v>194</v>
+      </c>
+      <c r="K26" t="s">
+        <v>195</v>
+      </c>
+      <c r="L26" t="s">
+        <v>196</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>189</v>
+      </c>
+      <c r="O26" t="s">
+        <v>72</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>190</v>
+      </c>
+      <c r="X26" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>198</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>199</v>
+      </c>
+      <c r="J27" t="s">
+        <v>200</v>
+      </c>
+      <c r="K27" t="s">
+        <v>201</v>
+      </c>
+      <c r="L27" t="s">
+        <v>202</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>189</v>
+      </c>
+      <c r="O27" t="s">
+        <v>72</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>190</v>
+      </c>
+      <c r="X27" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>204</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>205</v>
+      </c>
+      <c r="J28" t="s">
+        <v>206</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s">
+        <v>157</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>207</v>
+      </c>
+      <c r="O28" t="s">
+        <v>72</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>190</v>
+      </c>
+      <c r="X28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>208</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>209</v>
+      </c>
+      <c r="J29" t="s">
+        <v>210</v>
+      </c>
+      <c r="K29" t="s">
+        <v>211</v>
+      </c>
+      <c r="L29" t="s">
+        <v>212</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>207</v>
+      </c>
+      <c r="O29" t="s">
+        <v>72</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>190</v>
+      </c>
+      <c r="X29" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>214</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>215</v>
+      </c>
+      <c r="J30" t="s">
+        <v>216</v>
+      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s">
+        <v>157</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>207</v>
+      </c>
+      <c r="O30" t="s">
+        <v>72</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>190</v>
+      </c>
+      <c r="X30" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>217</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>218</v>
+      </c>
+      <c r="J31" t="s">
+        <v>219</v>
+      </c>
+      <c r="K31" t="s">
+        <v>220</v>
+      </c>
+      <c r="L31" t="s">
+        <v>221</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>222</v>
+      </c>
+      <c r="O31" t="s">
+        <v>72</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>190</v>
+      </c>
+      <c r="X31" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>224</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>225</v>
+      </c>
+      <c r="J32" t="s">
+        <v>226</v>
+      </c>
+      <c r="K32" t="s">
+        <v>227</v>
+      </c>
+      <c r="L32" t="s">
+        <v>228</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>207</v>
+      </c>
+      <c r="O32" t="s">
+        <v>114</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>190</v>
+      </c>
+      <c r="X32" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>230</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>231</v>
+      </c>
+      <c r="J33" t="s">
+        <v>226</v>
+      </c>
+      <c r="K33" t="s">
+        <v>232</v>
+      </c>
+      <c r="L33" t="s">
+        <v>233</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>207</v>
+      </c>
+      <c r="O33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>190</v>
+      </c>
+      <c r="X33" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>235</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>236</v>
+      </c>
+      <c r="J34" t="s">
+        <v>237</v>
+      </c>
+      <c r="K34" t="s">
+        <v>238</v>
+      </c>
+      <c r="L34" t="s">
+        <v>239</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>222</v>
+      </c>
+      <c r="O34" t="s">
+        <v>72</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>240</v>
+      </c>
+      <c r="X34" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>243</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>244</v>
+      </c>
+      <c r="J35" t="s">
+        <v>245</v>
+      </c>
+      <c r="K35" t="s">
+        <v>246</v>
+      </c>
+      <c r="L35" t="s">
+        <v>247</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>222</v>
+      </c>
+      <c r="O35" t="s">
+        <v>72</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>190</v>
+      </c>
+      <c r="X35" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>249</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>250</v>
+      </c>
+      <c r="J36" t="s">
+        <v>245</v>
+      </c>
+      <c r="K36" t="s">
+        <v>251</v>
+      </c>
+      <c r="L36" t="s">
+        <v>252</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>222</v>
+      </c>
+      <c r="O36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>190</v>
+      </c>
+      <c r="X36" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>254</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>255</v>
+      </c>
+      <c r="J37" t="s">
+        <v>245</v>
+      </c>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s">
+        <v>157</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>182</v>
+      </c>
+      <c r="O37" t="s">
+        <v>72</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>190</v>
+      </c>
+      <c r="X37" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>256</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>257</v>
+      </c>
+      <c r="J38" t="s">
+        <v>258</v>
+      </c>
+      <c r="K38" t="s">
+        <v>259</v>
+      </c>
+      <c r="L38" t="s">
+        <v>260</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>182</v>
+      </c>
+      <c r="O38" t="s">
+        <v>72</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>261</v>
+      </c>
+      <c r="X38" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>264</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>265</v>
+      </c>
+      <c r="J39" t="s">
+        <v>266</v>
+      </c>
+      <c r="K39" t="s">
+        <v>267</v>
+      </c>
+      <c r="L39" t="s">
+        <v>268</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>182</v>
+      </c>
+      <c r="O39" t="s">
+        <v>136</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>269</v>
+      </c>
+      <c r="X39" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>272</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>273</v>
+      </c>
+      <c r="J40" t="s">
+        <v>274</v>
+      </c>
+      <c r="K40" t="s">
+        <v>275</v>
+      </c>
+      <c r="L40" t="s">
+        <v>276</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>182</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>277</v>
+      </c>
+      <c r="X40" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_174.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_174.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="425">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,63 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/09/2018</t>
+    <t>09/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r601641215-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>12103649</t>
+  </si>
+  <si>
+    <t>601641215</t>
+  </si>
+  <si>
+    <t>07/31/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great hotel. But best prices </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome hotel, clean, friendly, and best of all the price.  Hotel is fairly new and well maintained. You won't be disappointed staying here. Also it was not a bad off and on to the freeway. Breakfast was the usual typical hotel breakfast. </t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r593001201-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>593001201</t>
+  </si>
+  <si>
+    <t>07/04/2018</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised</t>
+  </si>
+  <si>
+    <t>I picked days inn because of the low prices for their rooms. I have stayed in a lot of days in all over the country and I think absolutely this is the best one that I’ve ever been to. When entering it was so easy to check in. Very friendly staff hotel smells like it’s brand new. The elevators are very fast and modern the rooms were very clean and like I said smell like it’s a brand new hotel. The hotel is very quiet rooms are nice and cold because of the heat outside. There is no musty smell the bathrooms are very clean. I ate breakfast down in the lobby they had waffles eggs sausage cereal fruit pastries and that’s exactly all I need.Oh don’t forget they have coffee orange juice milk. Out of all the days in that I’ve ever stayed in this one is absolutely at the very top I love this hotel I wished all of the more like this I would recommend to friends and family and I will stay here againMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>I picked days inn because of the low prices for their rooms. I have stayed in a lot of days in all over the country and I think absolutely this is the best one that I’ve ever been to. When entering it was so easy to check in. Very friendly staff hotel smells like it’s brand new. The elevators are very fast and modern the rooms were very clean and like I said smell like it’s a brand new hotel. The hotel is very quiet rooms are nice and cold because of the heat outside. There is no musty smell the bathrooms are very clean. I ate breakfast down in the lobby they had waffles eggs sausage cereal fruit pastries and that’s exactly all I need.Oh don’t forget they have coffee orange juice milk. Out of all the days in that I’ve ever stayed in this one is absolutely at the very top I love this hotel I wished all of the more like this I would recommend to friends and family and I will stay here againMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r595270045-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>12103649</t>
-  </si>
-  <si>
     <t>595270045</t>
   </si>
   <si>
@@ -174,9 +219,6 @@
     <t>It was a great stay everything was perfect very clean.. everyone was nice and polite I recommend this hotel. I drove a long time and it was worth every minute of it when I got there. The room was a nice size and very comfortable.</t>
   </si>
   <si>
-    <t>July 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
@@ -216,6 +258,45 @@
     <t>Last year I staid at this Days Inn (10650 Huffmeister Rd, Houston). I was very impressed with this low fare hotel and the high quality of the service provided.This year I decided to return, despite of the prices rose a lot (almost double I paid last year).But, the experience was very good again. Clean and spacious room, convenient complimentary breakfast and good location. Next year I'm planning to return to OTC and stay again in this Days Inn. I hope prices drop down...</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r573482264-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>573482264</t>
+  </si>
+  <si>
+    <t>04/15/2018</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>I have stayed here before and because of the great service and clean rooms I came back. The manager DJ is very helpful and will take care of you the best he can. The breakfast in the morning is good and I like that they have they have a business area and a snack corner. I will be coming back here for sure!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>DJ_Chudasama, General Manager at Days Inn &amp; Suites by Wyndham Houston NW Cypress, responded to this reviewResponded April 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2018</t>
+  </si>
+  <si>
+    <t>I have stayed here before and because of the great service and clean rooms I came back. The manager DJ is very helpful and will take care of you the best he can. The breakfast in the morning is good and I like that they have they have a business area and a snack corner. I will be coming back here for sure!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r569565455-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>569565455</t>
+  </si>
+  <si>
+    <t>03/29/2018</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r567701377-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
   </si>
   <si>
@@ -234,9 +315,6 @@
     <t>September 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>DJ_Chudasama, General Manager at Days Inn &amp; Suites by Wyndham Houston NW Cypress, responded to this reviewResponded April 10, 2018</t>
   </si>
   <si>
@@ -282,6 +360,27 @@
     <t>Highly recommend this hotel. Clean rooms soft beds great breakfast and great customer service honestly you should book this hotel it’s really amazing how the staff is and the way they treat every person .</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r557414988-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>557414988</t>
+  </si>
+  <si>
+    <t>01/30/2018</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r555977713-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>555977713</t>
+  </si>
+  <si>
+    <t>01/23/2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r545314771-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
   </si>
   <si>
@@ -319,6 +418,36 @@
   </si>
   <si>
     <t>We stayed here for a week in September-October. It's a nice hotel. Rooms are nicely appointed and staff are friendly. Car park is big and well lit. It is an easy drive to a variety of local restaurants. The big plus is that it has a free breakfast including hot dishes. Rooms are a reasonable size.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r544697640-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>544697640</t>
+  </si>
+  <si>
+    <t>12/02/2017</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r542887988-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>542887988</t>
+  </si>
+  <si>
+    <t>11/23/2017</t>
+  </si>
+  <si>
+    <t>Amazing!</t>
+  </si>
+  <si>
+    <t>This hotel is spectacularly! The staff is very friendly and the rooms are spacious and comfy. The staff is always willing to go the extra mile to make sure your stay is as great as possible.breakfast in the morning is really good as well. This hotel has a very modern touch that is very welcoming.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r540824506-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
@@ -359,12 +488,6 @@
     <t>We were very pleased with the updated decor and overall cleanliness of the hotel. The staff was very helpful and friendly.  We will definitely stay at this Days Inn whenever we visit Cypress, Texas.</t>
   </si>
   <si>
-    <t>October 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r534420204-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
   </si>
   <si>
@@ -380,6 +503,42 @@
     <t>Clean rooms and great staff. Breakfast served daily very clean area food nice and hot great selection. Room was clean had fridge and microwave, large area for the price. Free wi-fi and computer available near lobby area. Nice gym, laundry room and pool available all nice and clean.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r529649138-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>529649138</t>
+  </si>
+  <si>
+    <t>10/03/2017</t>
+  </si>
+  <si>
+    <t>Grateful for this hotel</t>
+  </si>
+  <si>
+    <t>Me and my family were displaced because of the hurricane and FEMA had to help us get into a hotel and this was on the list. It was very convenient close to my work and son's school. The breakfast every morning was great and always fresh. Everyone was very polite from the front desk to the housekeepers. The manager DJ made sure my family was comfortable. We were treated with respect even in the situation we were in. I would most def recommend this hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r527821193-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>527821193</t>
+  </si>
+  <si>
+    <t>09/27/2017</t>
+  </si>
+  <si>
+    <t>Thankful for The Days Inn!</t>
+  </si>
+  <si>
+    <t>We came here when our home flooded during Harvey, we have nothing but a good experience! It is clean, comfortable and convenient! Our bed is very comfortable and our rooms are always clean when we get back every day! Every staff member we have met in the last month of our stay has been helpful and friendly and DJ, the manager has been awesome! He has gone out of his way to help make us feel welcome! They have definitely made us feel at home and we couldn't be more grateful during such a stressful time for our family! There is no place like home, but Days Inn Cypress is for sure as close as you can get!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>We came here when our home flooded during Harvey, we have nothing but a good experience! It is clean, comfortable and convenient! Our bed is very comfortable and our rooms are always clean when we get back every day! Every staff member we have met in the last month of our stay has been helpful and friendly and DJ, the manager has been awesome! He has gone out of his way to help make us feel welcome! They have definitely made us feel at home and we couldn't be more grateful during such a stressful time for our family! There is no place like home, but Days Inn Cypress is for sure as close as you can get!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r527275420-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
   </si>
   <si>
@@ -413,6 +572,36 @@
     <t>The room was clean and the staff was friendly.  The only real complaint I have involves the high speed internet service. There is supposed to be high speed Wi-Fi available in your room.  Depending on the time of day, the service was hit or miss.  Typically from 5 PM to 11 PM the high speed service was virtually useless, either not responding when on or not letting you get on.  I reported the issue to the front desk and they attempted to fix with their provider but still no luck.  I assume it had something to do with my location on the 3rd floor because the internet service was fast and flawless in the lobby's business center.  More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r526824046-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>526824046</t>
+  </si>
+  <si>
+    <t>09/23/2017</t>
+  </si>
+  <si>
+    <t>Worst staff ever</t>
+  </si>
+  <si>
+    <t>Could not sleep due to loud guests above me. Complained repeatedly to front desk and the issue was not resolved. Ended at 11:30 pm and started back up at 4:30 am. Was offered a "sorry for your inconvenience" and "we will talk to them" after I had left. Holiday Inn Express next door is phenomenal. Beds were had at the days inn too.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r525560814-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>525560814</t>
+  </si>
+  <si>
+    <t>09/18/2017</t>
+  </si>
+  <si>
+    <t>Best Place to Be After Harvey!</t>
+  </si>
+  <si>
+    <t>DJ the manager was the kindest and most accommodating manager I have ever met at a hotel.  The entire staff bent over backwards to help everyone that was staying there, displaced or assisting after the hurricane. The rooms were comfortable and roomy and it was a welcoming place to end each day.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r522993366-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
   </si>
   <si>
@@ -428,9 +617,6 @@
     <t>The rooms were modern and clean, breakfast on the other hand was a disappointment. The selection wasn't great and on one of the mornings I was there the guy that was topping everything up was really really really slow... And when the selection is so minimal this is a problem. The next morning when the woman was topping it up it was fine</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r519710213-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
   </si>
   <si>
@@ -440,9 +626,6 @@
     <t>08/30/2017</t>
   </si>
   <si>
-    <t>August 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r517939364-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
   </si>
   <si>
@@ -458,6 +641,45 @@
     <t>We were very impressed with all of the modern amenities and the cleanliness. Great place to stay.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r511020808-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>511020808</t>
+  </si>
+  <si>
+    <t>08/10/2017</t>
+  </si>
+  <si>
+    <t>..</t>
+  </si>
+  <si>
+    <t>Excellent rooms for the price. Nice decor. Excellent service. The complimentary breakfast was good. Good coffee</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r507820019-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>507820019</t>
+  </si>
+  <si>
+    <t>08/01/2017</t>
+  </si>
+  <si>
+    <t>Excellent price</t>
+  </si>
+  <si>
+    <t>I was able to book this via orbitz at a very good rate.  It was clean and breakfast was very good.  My only complaint - both nights there were people yelling in the hallway back and forth well after midnight on the third floor.MoreShow less</t>
+  </si>
+  <si>
+    <t>DJ_Chudasama, General Manager at Days Inn &amp; Suites by Wyndham Houston NW Cypress, responded to this reviewResponded August 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2017</t>
+  </si>
+  <si>
+    <t>I was able to book this via orbitz at a very good rate.  It was clean and breakfast was very good.  My only complaint - both nights there were people yelling in the hallway back and forth well after midnight on the third floor.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r507593953-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
   </si>
   <si>
@@ -473,12 +695,6 @@
     <t>The managers and staff went out of their way to attend to their guests. They were very kind and always helpful. I would definitely recommend this hotel to anyone. We had never been in Texas before and they all helped us with our many questions and gave us great advice as we relocated our daughter to Texas! Thank you !!MoreShow less</t>
   </si>
   <si>
-    <t>DJ_Chudasama, General Manager at Days Inn &amp; Suites by Wyndham Houston NW Cypress, responded to this reviewResponded August 6, 2017</t>
-  </si>
-  <si>
-    <t>Responded August 6, 2017</t>
-  </si>
-  <si>
     <t>The managers and staff went out of their way to attend to their guests. They were very kind and always helpful. I would definitely recommend this hotel to anyone. We had never been in Texas before and they all helped us with our many questions and gave us great advice as we relocated our daughter to Texas! Thank you !!More</t>
   </si>
   <si>
@@ -527,27 +743,48 @@
     <t>We were in Houston for a family reunion. We were impressed for the service, cleanliness and value. We didn't have any problem. We will return soon. Thank you Days Inn for your hospitality!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r502311193-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>502311193</t>
+  </si>
+  <si>
+    <t>07/15/2017</t>
+  </si>
+  <si>
+    <t>DJ_Chudasama, General Manager at Days Inn &amp; Suites by Wyndham Houston NW Cypress, responded to this reviewResponded July 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r501688253-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>501688253</t>
+  </si>
+  <si>
+    <t>07/13/2017</t>
+  </si>
+  <si>
+    <t>DJ_Chudasama, General Manager at Days Inn &amp; Suites by Wyndham Houston NW Cypress, responded to this reviewResponded July 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r501605796-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
   </si>
   <si>
     <t>501605796</t>
   </si>
   <si>
-    <t>07/13/2017</t>
-  </si>
-  <si>
     <t>I reserved this Hotel online with a variety of others to...</t>
   </si>
   <si>
     <t>I reserved this Hotel online with a variety of others to choose from. I chose this one because it allows you to reserve without a credit card on file. You have the option to pay when you arrive for your stay. The Hotel was so clean, the staff was Super nice and the location was perfect. Last but not least checkout is 12pm. Wow.. Loved it... They also had an amazing breakfast. I would definitely stay again.!!!MoreShow less</t>
   </si>
   <si>
-    <t>DJ_Chudasama, General Manager at Days Inn &amp; Suites by Wyndham Houston NW Cypress, responded to this reviewResponded July 14, 2017</t>
-  </si>
-  <si>
-    <t>Responded July 14, 2017</t>
-  </si>
-  <si>
     <t>I reserved this Hotel online with a variety of others to choose from. I chose this one because it allows you to reserve without a credit card on file. You have the option to pay when you arrive for your stay. The Hotel was so clean, the staff was Super nice and the location was perfect. Last but not least checkout is 12pm. Wow.. Loved it... They also had an amazing breakfast. I would definitely stay again.!!!More</t>
   </si>
   <si>
@@ -596,6 +833,27 @@
     <t>Responded July 6, 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r497190738-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>497190738</t>
+  </si>
+  <si>
+    <t>06/29/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r496637456-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>496637456</t>
+  </si>
+  <si>
+    <t>06/27/2017</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r495896936-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
   </si>
   <si>
@@ -641,7 +899,37 @@
     <t>06/01/2017</t>
   </si>
   <si>
-    <t>May 2017</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r489658687-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>489658687</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Great place to stay, very close to our family and shopping malls. Great location right off the freeway.Enjoyed the gym and the pool. Breakfast was more than I had expected, my husband enjoyed it, I  would suggest maybe some fruit for those like myself who are vegan. We are definitely going to stay here on our next trip to Texas!MoreShow less</t>
+  </si>
+  <si>
+    <t>Great place to stay, very close to our family and shopping malls. Great location right off the freeway.Enjoyed the gym and the pool. Breakfast was more than I had expected, my husband enjoyed it, I  would suggest maybe some fruit for those like myself who are vegan. We are definitely going to stay here on our next trip to Texas!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r487695402-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>487695402</t>
+  </si>
+  <si>
+    <t>05/25/2017</t>
+  </si>
+  <si>
+    <t>Want outstanding quality and value? Stay here...</t>
+  </si>
+  <si>
+    <t>Days Inns hotels have never been my first choice; or for that matter, second or third choice. Thankfully, I decided to give this hotel a try based on posted reviews, proximity to my business appointment and pricing. I have to say that I was more than pleased with this property...an amazing experience and value across the board!First of all, this hotel is brand new and literally has that "new car smell." It was very clean, well-appointed and fresh. I actually met the owner at the front desk, Yogi Chudasama, and found her to be an utterly charming and gracious host(ess).There is no question in my mind that I will stay here again as need arises...MoreShow less</t>
+  </si>
+  <si>
+    <t>Days Inns hotels have never been my first choice; or for that matter, second or third choice. Thankfully, I decided to give this hotel a try based on posted reviews, proximity to my business appointment and pricing. I have to say that I was more than pleased with this property...an amazing experience and value across the board!First of all, this hotel is brand new and literally has that "new car smell." It was very clean, well-appointed and fresh. I actually met the owner at the front desk, Yogi Chudasama, and found her to be an utterly charming and gracious host(ess).There is no question in my mind that I will stay here again as need arises...More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r486992833-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
@@ -692,15 +980,39 @@
     <t>We were visiting family in the area and this was the perfect location.  It was convenient to their home and had a variety of places near it.   The only issue was there were 4 of us in a room (2 adults and 2 kids.  We never had enough towels (only left 2 or 3) and never left any extra toilet paper.  We had asked for extra on these items but it was not left.    They do not have towels down by the pool so you need to either ask at the front desk or use yours from the room.  Other than that we did have a great stay.  More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r482757936-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>482757936</t>
+  </si>
+  <si>
+    <t>05/08/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r482345301-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>482345301</t>
+  </si>
+  <si>
+    <t>05/07/2017</t>
+  </si>
+  <si>
+    <t>Houston stay</t>
+  </si>
+  <si>
+    <t>Breakfast did not have enough healthy choices.  No fruit except bananas if any. No plain (without sugar) cereal and only egg omelette for an egg choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>Breakfast did not have enough healthy choices.  No fruit except bananas if any. No plain (without sugar) cereal and only egg omelette for an egg choice.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r482340476-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
   </si>
   <si>
     <t>482340476</t>
   </si>
   <si>
-    <t>05/07/2017</t>
-  </si>
-  <si>
     <t>Best hotel</t>
   </si>
   <si>
@@ -749,6 +1061,54 @@
     <t>New, clean, nice and would stay there anytime.  Good breakfast, good staff, and an excellent choice.  Great price.  You might pay two or three times the price for equivalent lodging.  Buy it!!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r476968569-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>476968569</t>
+  </si>
+  <si>
+    <t>04/18/2017</t>
+  </si>
+  <si>
+    <t>Great service!</t>
+  </si>
+  <si>
+    <t>Recently opened facility. It has all the amenities you need including a guest laundry room, business and fitness center and they even sell snacks too!  MoreShow less</t>
+  </si>
+  <si>
+    <t>DJ_Chudasama, General Manager at Days Inn &amp; Suites by Wyndham Houston NW Cypress, responded to this reviewResponded April 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2017</t>
+  </si>
+  <si>
+    <t>Recently opened facility. It has all the amenities you need including a guest laundry room, business and fitness center and they even sell snacks too!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r475390890-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>475390890</t>
+  </si>
+  <si>
+    <t>04/13/2017</t>
+  </si>
+  <si>
+    <t>A New Gem</t>
+  </si>
+  <si>
+    <t>We were pleasantly surprised when we walked in. Our trip was last minute and finding a hotel was a last minute ordeal. Fortunately we found this gem of a place with wonderful staff and very comfortable accommodations. What a relief to sink into a clean comfortable bed after a 26 hour car ride. this place has everything you need from breakfast in the morning to free wifi. I want to give a big thank you to the staff for being so wonderful to us. I have already shared this hotel hotel with several other people.  MoreShow less</t>
+  </si>
+  <si>
+    <t>DJ_Chudasama, General Manager at Days Inn &amp; Suites by Wyndham Houston NW Cypress, responded to this reviewResponded April 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2017</t>
+  </si>
+  <si>
+    <t>We were pleasantly surprised when we walked in. Our trip was last minute and finding a hotel was a last minute ordeal. Fortunately we found this gem of a place with wonderful staff and very comfortable accommodations. What a relief to sink into a clean comfortable bed after a 26 hour car ride. this place has everything you need from breakfast in the morning to free wifi. I want to give a big thank you to the staff for being so wonderful to us. I have already shared this hotel hotel with several other people.  More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r473258305-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
   </si>
   <si>
@@ -788,6 +1148,39 @@
     <t>473185435</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r472691564-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>472691564</t>
+  </si>
+  <si>
+    <t>04/04/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r471386215-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>471386215</t>
+  </si>
+  <si>
+    <t>03/30/2017</t>
+  </si>
+  <si>
+    <t>Wow! Great hotel</t>
+  </si>
+  <si>
+    <t>What an unexpected surprise. Brand new and tastefully done and a much better value than the hotel at twice the price next door. This definitely isn't your typical Days Inn. I will be staying here again for for sure. MoreShow less</t>
+  </si>
+  <si>
+    <t>DJ_Chudasama, General Manager at Days Inn &amp; Suites by Wyndham Houston NW Cypress, responded to this reviewResponded March 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2017</t>
+  </si>
+  <si>
+    <t>What an unexpected surprise. Brand new and tastefully done and a much better value than the hotel at twice the price next door. This definitely isn't your typical Days Inn. I will be staying here again for for sure. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r471210440-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
   </si>
   <si>
@@ -858,6 +1251,54 @@
   </si>
   <si>
     <t>What a beautiful, new hotel at reasonable prices. We stayed at this hotel for 2 nights while we visited friends. The modern look is very attractive, and the high ceilings in the rooms makes the feel of much more space. The front desk staff was warm and friendly and tried to help in arranging our next stop on our trip, San Antonio. The buffet breakfast was the usual for hotels. Cheese omelets and bacon with make your own waffles. Coffee, juice, milk and bagels and Danish along with some fruit. Would highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r467892511-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>467892511</t>
+  </si>
+  <si>
+    <t>03/16/2017</t>
+  </si>
+  <si>
+    <t>DJ_Chudasama, General Manager at Days Inn &amp; Suites by Wyndham Houston NW Cypress, responded to this reviewResponded March 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12103649-r460246890-Days_Inn_Suites_by_Wyndham_Houston_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>460246890</t>
+  </si>
+  <si>
+    <t>02/15/2017</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t>I want to put in a great word for a new area hotel off of Us Hwy 290 and Huffmiester, The Days Inn and Suites. It is a brand new hotel that has been open for business less then two weeks. So everything is nice and new, but I really want to talk about their customer service.
+Last Thursday February 9, I had an overnight stay. The management here is extremely responsive. We checked in, and found out that all of the cable news networks tv stations did not work. I would get a weak signal message. I informed the management, and they immediately contacted Comcast to attempt to solve the problem. Unfortunately, they were not able to resolve it, and they gave a partial refund for the inconvience.
+Fast forward to today Wednesday February 15. I'm going to need a hotel for at least a week. I called the hotel to see if the tv issued had been resolved yet. He went on to explain that there was a programming card issue with the Tv's in the hotel and Comcast, and it should be resolved by Friday. He also said that he would buy a new tv and put it in the room tonight so we could watch all the channels.
+When we checked in he said the tv was on its way, and when it got here he would bring it in. We now have the new tv...I want to put in a great word for a new area hotel off of Us Hwy 290 and Huffmiester, The Days Inn and Suites. It is a brand new hotel that has been open for business less then two weeks. So everything is nice and new, but I really want to talk about their customer service.Last Thursday February 9, I had an overnight stay. The management here is extremely responsive. We checked in, and found out that all of the cable news networks tv stations did not work. I would get a weak signal message. I informed the management, and they immediately contacted Comcast to attempt to solve the problem. Unfortunately, they were not able to resolve it, and they gave a partial refund for the inconvience.Fast forward to today Wednesday February 15. I'm going to need a hotel for at least a week. I called the hotel to see if the tv issued had been resolved yet. He went on to explain that there was a programming card issue with the Tv's in the hotel and Comcast, and it should be resolved by Friday. He also said that he would buy a new tv and put it in the room tonight so we could watch all the channels.When we checked in he said the tv was on its way, and when it got here he would bring it in. We now have the new tv and all the channels are available. Now that's what I call great customer service.I highly recommend this hotel if you plan on staying in this part of Houston, as I have full confidence in the management of the hotel to resolve any issue that may arise during your stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>DJ_Chudasama, General Manager at Days Inn &amp; Suites by Wyndham Houston NW Cypress, responded to this reviewResponded February 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2017</t>
+  </si>
+  <si>
+    <t>I want to put in a great word for a new area hotel off of Us Hwy 290 and Huffmiester, The Days Inn and Suites. It is a brand new hotel that has been open for business less then two weeks. So everything is nice and new, but I really want to talk about their customer service.
+Last Thursday February 9, I had an overnight stay. The management here is extremely responsive. We checked in, and found out that all of the cable news networks tv stations did not work. I would get a weak signal message. I informed the management, and they immediately contacted Comcast to attempt to solve the problem. Unfortunately, they were not able to resolve it, and they gave a partial refund for the inconvience.
+Fast forward to today Wednesday February 15. I'm going to need a hotel for at least a week. I called the hotel to see if the tv issued had been resolved yet. He went on to explain that there was a programming card issue with the Tv's in the hotel and Comcast, and it should be resolved by Friday. He also said that he would buy a new tv and put it in the room tonight so we could watch all the channels.
+When we checked in he said the tv was on its way, and when it got here he would bring it in. We now have the new tv...I want to put in a great word for a new area hotel off of Us Hwy 290 and Huffmiester, The Days Inn and Suites. It is a brand new hotel that has been open for business less then two weeks. So everything is nice and new, but I really want to talk about their customer service.Last Thursday February 9, I had an overnight stay. The management here is extremely responsive. We checked in, and found out that all of the cable news networks tv stations did not work. I would get a weak signal message. I informed the management, and they immediately contacted Comcast to attempt to solve the problem. Unfortunately, they were not able to resolve it, and they gave a partial refund for the inconvience.Fast forward to today Wednesday February 15. I'm going to need a hotel for at least a week. I called the hotel to see if the tv issued had been resolved yet. He went on to explain that there was a programming card issue with the Tv's in the hotel and Comcast, and it should be resolved by Friday. He also said that he would buy a new tv and put it in the room tonight so we could watch all the channels.When we checked in he said the tv was on its way, and when it got here he would bring it in. We now have the new tv and all the channels are available. Now that's what I call great customer service.I highly recommend this hotel if you plan on staying in this part of Houston, as I have full confidence in the management of the hotel to resolve any issue that may arise during your stay.More</t>
   </si>
 </sst>
 </file>
@@ -1457,29 +1898,19 @@
       <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -1495,7 +1926,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1504,49 +1935,39 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
         <v>59</v>
       </c>
       <c r="O4" t="s">
-        <v>60</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" t="n">
-        <v>4</v>
-      </c>
-      <c r="S4" t="n">
-        <v>4</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -1562,7 +1983,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1571,25 +1992,25 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -1610,14 +2031,10 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>73</v>
-      </c>
-      <c r="X5" t="s">
-        <v>74</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -1633,48 +2050,58 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>76</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>77</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>78</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>79</v>
       </c>
-      <c r="L6" t="s">
-        <v>80</v>
-      </c>
       <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>81</v>
-      </c>
-      <c r="X6" t="s">
-        <v>82</v>
-      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
@@ -1690,31 +2117,35 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
         <v>84</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>85</v>
       </c>
-      <c r="J7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
@@ -1724,10 +2155,14 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>86</v>
+      </c>
+      <c r="X7" t="s">
+        <v>87</v>
+      </c>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
@@ -1743,7 +2178,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1752,10 +2187,10 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -1763,10 +2198,10 @@
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O8" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -1804,7 +2239,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1813,34 +2248,34 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="n">
         <v>5</v>
       </c>
       <c r="R9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1852,10 +2287,14 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>99</v>
+      </c>
+      <c r="X9" t="s">
+        <v>100</v>
+      </c>
       <c r="Y9" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
@@ -1871,7 +2310,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1880,45 +2319,39 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="K10" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="L10" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" t="s">
-        <v>71</v>
-      </c>
-      <c r="O10" t="s">
-        <v>72</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>4</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>4</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>107</v>
+      </c>
+      <c r="X10" t="s">
+        <v>108</v>
+      </c>
       <c r="Y10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
@@ -1934,7 +2367,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1943,26 +2376,22 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K11" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>106</v>
-      </c>
-      <c r="O11" t="s">
-        <v>60</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
@@ -1975,7 +2404,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
@@ -1991,7 +2420,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2000,25 +2429,21 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="J12" t="s">
-        <v>110</v>
-      </c>
-      <c r="K12" t="s">
-        <v>111</v>
-      </c>
-      <c r="L12" t="s">
-        <v>112</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O12" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -2041,9 +2466,7 @@
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
-      <c r="Y12" t="s">
-        <v>112</v>
-      </c>
+      <c r="Y12" t="s"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2058,7 +2481,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2067,34 +2490,34 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>117</v>
       </c>
-      <c r="K13" t="s">
-        <v>118</v>
-      </c>
-      <c r="L13" t="s">
-        <v>119</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>113</v>
-      </c>
       <c r="O13" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
       </c>
-      <c r="Q13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
       <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
         <v>5</v>
@@ -2104,9 +2527,7 @@
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
-      <c r="Y13" t="s">
-        <v>119</v>
-      </c>
+      <c r="Y13" t="s"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2121,7 +2542,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2130,10 +2551,10 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -2141,10 +2562,10 @@
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -2182,39 +2603,43 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>126</v>
+      </c>
+      <c r="J15" t="s">
         <v>123</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
-        <v>124</v>
-      </c>
-      <c r="J15" t="s">
-        <v>125</v>
-      </c>
-      <c r="K15" t="s"/>
-      <c r="L15" t="s"/>
+      <c r="K15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" t="s">
+        <v>127</v>
+      </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="O15" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="P15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="n">
         <v>5</v>
       </c>
       <c r="R15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2228,7 +2653,9 @@
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
-      <c r="Y15" t="s"/>
+      <c r="Y15" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2243,7 +2670,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2252,35 +2679,31 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J16" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="K16" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="L16" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="O16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
       </c>
-      <c r="Q16" t="n">
-        <v>4</v>
-      </c>
-      <c r="R16" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
       <c r="S16" t="n">
         <v>4</v>
       </c>
@@ -2294,7 +2717,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17">
@@ -2310,7 +2733,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2319,40 +2742,44 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="J17" t="s">
-        <v>133</v>
-      </c>
-      <c r="K17" t="s">
-        <v>134</v>
-      </c>
-      <c r="L17" t="s">
-        <v>135</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s"/>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="O17" t="s">
-        <v>136</v>
-      </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
-      <c r="Y17" t="s">
-        <v>135</v>
-      </c>
+      <c r="Y17" t="s"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2367,7 +2794,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2376,44 +2803,40 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J18" t="s">
-        <v>139</v>
-      </c>
-      <c r="K18" t="s"/>
-      <c r="L18" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="K18" t="s">
+        <v>141</v>
+      </c>
+      <c r="L18" t="s">
+        <v>142</v>
+      </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>4</v>
-      </c>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
-      <c r="Y18" t="s"/>
+      <c r="Y18" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2428,7 +2851,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2437,49 +2860,39 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J19" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K19" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L19" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="O19" t="s">
-        <v>72</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20">
@@ -2495,7 +2908,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2504,32 +2917,38 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="J20" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="K20" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L20" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="O20" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
       </c>
-      <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
         <v>5</v>
@@ -2537,14 +2956,10 @@
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>151</v>
-      </c>
-      <c r="X20" t="s">
-        <v>152</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21">
@@ -2560,7 +2975,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2569,36 +2984,34 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J21" t="s">
-        <v>156</v>
-      </c>
-      <c r="K21" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="K21" t="s">
+        <v>159</v>
+      </c>
       <c r="L21" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="O21" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
       </c>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q21" t="s"/>
       <c r="R21" t="n">
         <v>5</v>
       </c>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
         <v>5</v>
@@ -2606,12 +3019,8 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>158</v>
-      </c>
-      <c r="X21" t="s">
-        <v>159</v>
-      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
       <c r="Y21" t="s">
         <v>160</v>
       </c>
@@ -2653,10 +3062,10 @@
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="O22" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -2664,12 +3073,8 @@
       <c r="Q22" t="n">
         <v>5</v>
       </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
         <v>5</v>
@@ -2677,14 +3082,10 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>166</v>
-      </c>
-      <c r="X22" t="s">
-        <v>167</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23">
@@ -2700,47 +3101,41 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
+        <v>166</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>167</v>
+      </c>
+      <c r="J23" t="s">
+        <v>168</v>
+      </c>
+      <c r="K23" t="s">
         <v>169</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="L23" t="s">
         <v>170</v>
       </c>
-      <c r="J23" t="s">
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
         <v>171</v>
       </c>
-      <c r="K23" t="s">
-        <v>172</v>
-      </c>
-      <c r="L23" t="s">
-        <v>173</v>
-      </c>
-      <c r="M23" t="n">
-        <v>5</v>
-      </c>
-      <c r="N23" t="s">
-        <v>106</v>
-      </c>
       <c r="O23" t="s">
-        <v>72</v>
-      </c>
-      <c r="P23" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
       <c r="R23" t="n">
         <v>5</v>
       </c>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
         <v>5</v>
@@ -2748,14 +3143,10 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>174</v>
-      </c>
-      <c r="X23" t="s">
-        <v>175</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24">
@@ -2771,7 +3162,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2780,25 +3171,21 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J24" t="s">
-        <v>179</v>
-      </c>
-      <c r="K24" t="s">
-        <v>180</v>
-      </c>
-      <c r="L24" t="s">
-        <v>181</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s"/>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>182</v>
+        <v>98</v>
       </c>
       <c r="O24" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -2819,15 +3206,9 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>183</v>
-      </c>
-      <c r="X24" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>185</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2842,7 +3223,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -2851,52 +3232,44 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="J25" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="K25" t="s"/>
-      <c r="L25" t="s">
-        <v>157</v>
-      </c>
+      <c r="L25" t="s"/>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="O25" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>190</v>
-      </c>
-      <c r="X25" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>160</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2911,7 +3284,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -2920,37 +3293,37 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="J26" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="K26" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="L26" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="O26" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R26" t="n">
         <v>4</v>
       </c>
       <c r="S26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
@@ -2959,14 +3332,10 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>190</v>
-      </c>
-      <c r="X26" t="s">
-        <v>191</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27">
@@ -2982,7 +3351,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -2991,53 +3360,49 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="J27" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="K27" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="L27" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="O27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>190</v>
-      </c>
-      <c r="X27" t="s">
-        <v>191</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28">
@@ -3053,7 +3418,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3062,26 +3427,28 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="J28" t="s">
-        <v>206</v>
-      </c>
-      <c r="K28" t="s"/>
+        <v>191</v>
+      </c>
+      <c r="K28" t="s">
+        <v>192</v>
+      </c>
       <c r="L28" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>207</v>
+        <v>98</v>
       </c>
       <c r="O28" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q28" t="n">
         <v>5</v>
@@ -3099,14 +3466,10 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
-        <v>190</v>
-      </c>
-      <c r="X28" t="s">
-        <v>191</v>
-      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29">
@@ -3122,7 +3485,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3131,49 +3494,39 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="J29" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="K29" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="L29" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>207</v>
+        <v>98</v>
       </c>
       <c r="O29" t="s">
-        <v>72</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
+      <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>190</v>
-      </c>
-      <c r="X29" t="s">
-        <v>191</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30">
@@ -3189,7 +3542,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3198,29 +3551,27 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="J30" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="K30" t="s"/>
-      <c r="L30" t="s">
-        <v>157</v>
-      </c>
+      <c r="L30" t="s"/>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="O30" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
       </c>
       <c r="Q30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R30" t="n">
         <v>5</v>
@@ -3235,15 +3586,9 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>190</v>
-      </c>
-      <c r="X30" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>160</v>
-      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3258,7 +3603,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3267,53 +3612,49 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="J31" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="K31" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="L31" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="O31" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
-        <v>190</v>
-      </c>
-      <c r="X31" t="s">
-        <v>191</v>
-      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32">
@@ -3329,7 +3670,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3338,37 +3679,37 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="J32" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="K32" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="L32" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="O32" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
       </c>
       <c r="Q32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
@@ -3377,14 +3718,10 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>190</v>
-      </c>
-      <c r="X32" t="s">
-        <v>191</v>
-      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33">
@@ -3400,7 +3737,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3409,32 +3746,28 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="J33" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="K33" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="L33" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="O33" t="s">
-        <v>60</v>
-      </c>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
       <c r="R33" t="n">
         <v>5</v>
       </c>
@@ -3443,19 +3776,19 @@
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="X33" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="Y33" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34">
@@ -3471,7 +3804,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3480,38 +3813,32 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="J34" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="K34" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="L34" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>222</v>
+        <v>149</v>
       </c>
       <c r="O34" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
       </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
         <v>5</v>
@@ -3520,13 +3847,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="X34" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="Y34" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35">
@@ -3542,7 +3869,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3551,25 +3878,23 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="J35" t="s">
-        <v>245</v>
-      </c>
-      <c r="K35" t="s">
-        <v>246</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="K35" t="s"/>
       <c r="L35" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>222</v>
+        <v>149</v>
       </c>
       <c r="O35" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -3578,7 +3903,7 @@
         <v>5</v>
       </c>
       <c r="R35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -3591,13 +3916,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="X35" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="Y35" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36">
@@ -3613,7 +3938,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3622,25 +3947,25 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="J36" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="K36" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="L36" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>222</v>
+        <v>149</v>
       </c>
       <c r="O36" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -3662,13 +3987,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>190</v>
+        <v>238</v>
       </c>
       <c r="X36" t="s">
-        <v>191</v>
+        <v>239</v>
       </c>
       <c r="Y36" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37">
@@ -3684,7 +4009,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3693,23 +4018,23 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="J37" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K37" t="s"/>
       <c r="L37" t="s">
-        <v>157</v>
+        <v>229</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="O37" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -3731,13 +4056,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>190</v>
+        <v>244</v>
       </c>
       <c r="X37" t="s">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="Y37" t="s">
-        <v>160</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38">
@@ -3753,7 +4078,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -3762,34 +4087,36 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="J38" t="s">
-        <v>258</v>
-      </c>
-      <c r="K38" t="s">
-        <v>259</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="K38" t="s"/>
       <c r="L38" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="O38" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
       </c>
-      <c r="Q38" t="s"/>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
       <c r="R38" t="n">
         <v>5</v>
       </c>
-      <c r="S38" t="s"/>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
         <v>5</v>
@@ -3798,13 +4125,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="X38" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="Y38" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39">
@@ -3820,7 +4147,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -3829,43 +4156,53 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="J39" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="K39" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="L39" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="O39" t="s">
-        <v>136</v>
-      </c>
-      <c r="P39" t="s"/>
-      <c r="Q39" t="s"/>
-      <c r="R39" t="s"/>
-      <c r="S39" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
       <c r="T39" t="s"/>
-      <c r="U39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="X39" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="Y39" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40">
@@ -3881,7 +4218,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -3890,31 +4227,35 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="J40" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="K40" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="L40" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>182</v>
+        <v>261</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
-      </c>
-      <c r="P40" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
       <c r="Q40" t="n">
         <v>5</v>
       </c>
-      <c r="R40" t="s"/>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
       <c r="S40" t="n">
         <v>5</v>
       </c>
@@ -3926,13 +4267,1941 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
+        <v>262</v>
+      </c>
+      <c r="X40" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>265</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>266</v>
+      </c>
+      <c r="J41" t="s">
+        <v>267</v>
+      </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s">
+        <v>229</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>268</v>
+      </c>
+      <c r="O41" t="s">
+        <v>60</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>269</v>
+      </c>
+      <c r="X41" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>271</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>272</v>
+      </c>
+      <c r="J42" t="s">
+        <v>273</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s">
+        <v>229</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>268</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>269</v>
+      </c>
+      <c r="X42" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>274</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>275</v>
+      </c>
+      <c r="J43" t="s">
+        <v>276</v>
+      </c>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s">
+        <v>229</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
         <v>277</v>
       </c>
-      <c r="X40" t="s">
+      <c r="O43" t="s">
+        <v>60</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>269</v>
+      </c>
+      <c r="X43" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
         <v>278</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
         <v>279</v>
+      </c>
+      <c r="J44" t="s">
+        <v>280</v>
+      </c>
+      <c r="K44" t="s">
+        <v>281</v>
+      </c>
+      <c r="L44" t="s">
+        <v>282</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>268</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>269</v>
+      </c>
+      <c r="X44" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>284</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>285</v>
+      </c>
+      <c r="J45" t="s">
+        <v>286</v>
+      </c>
+      <c r="K45" t="s">
+        <v>287</v>
+      </c>
+      <c r="L45" t="s">
+        <v>288</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>268</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>269</v>
+      </c>
+      <c r="X45" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>290</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>291</v>
+      </c>
+      <c r="J46" t="s">
+        <v>292</v>
+      </c>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s">
+        <v>229</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>277</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>269</v>
+      </c>
+      <c r="X46" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>293</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>294</v>
+      </c>
+      <c r="J47" t="s">
+        <v>292</v>
+      </c>
+      <c r="K47" t="s">
+        <v>295</v>
+      </c>
+      <c r="L47" t="s">
+        <v>296</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>277</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>269</v>
+      </c>
+      <c r="X47" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>298</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>299</v>
+      </c>
+      <c r="J48" t="s">
+        <v>300</v>
+      </c>
+      <c r="K48" t="s">
+        <v>301</v>
+      </c>
+      <c r="L48" t="s">
+        <v>302</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>277</v>
+      </c>
+      <c r="O48" t="s">
+        <v>74</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>269</v>
+      </c>
+      <c r="X48" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>304</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>305</v>
+      </c>
+      <c r="J49" t="s">
+        <v>306</v>
+      </c>
+      <c r="K49" t="s">
+        <v>307</v>
+      </c>
+      <c r="L49" t="s">
+        <v>308</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>277</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>269</v>
+      </c>
+      <c r="X49" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>310</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>311</v>
+      </c>
+      <c r="J50" t="s">
+        <v>312</v>
+      </c>
+      <c r="K50" t="s"/>
+      <c r="L50" t="s">
+        <v>229</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>277</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>269</v>
+      </c>
+      <c r="X50" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>313</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>314</v>
+      </c>
+      <c r="J51" t="s">
+        <v>315</v>
+      </c>
+      <c r="K51" t="s">
+        <v>316</v>
+      </c>
+      <c r="L51" t="s">
+        <v>317</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>318</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>269</v>
+      </c>
+      <c r="X51" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>320</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>321</v>
+      </c>
+      <c r="J52" t="s">
+        <v>322</v>
+      </c>
+      <c r="K52" t="s"/>
+      <c r="L52" t="s">
+        <v>229</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>318</v>
+      </c>
+      <c r="O52" t="s">
+        <v>143</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>269</v>
+      </c>
+      <c r="X52" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>323</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>324</v>
+      </c>
+      <c r="J53" t="s">
+        <v>325</v>
+      </c>
+      <c r="K53" t="s">
+        <v>326</v>
+      </c>
+      <c r="L53" t="s">
+        <v>327</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>277</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>269</v>
+      </c>
+      <c r="X53" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>329</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>330</v>
+      </c>
+      <c r="J54" t="s">
+        <v>325</v>
+      </c>
+      <c r="K54" t="s">
+        <v>331</v>
+      </c>
+      <c r="L54" t="s">
+        <v>332</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>277</v>
+      </c>
+      <c r="O54" t="s">
+        <v>60</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>269</v>
+      </c>
+      <c r="X54" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>334</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>335</v>
+      </c>
+      <c r="J55" t="s">
+        <v>325</v>
+      </c>
+      <c r="K55" t="s">
+        <v>336</v>
+      </c>
+      <c r="L55" t="s">
+        <v>337</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>277</v>
+      </c>
+      <c r="O55" t="s">
+        <v>74</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>269</v>
+      </c>
+      <c r="X55" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>339</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>340</v>
+      </c>
+      <c r="J56" t="s">
+        <v>341</v>
+      </c>
+      <c r="K56" t="s">
+        <v>342</v>
+      </c>
+      <c r="L56" t="s">
+        <v>343</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>318</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>344</v>
+      </c>
+      <c r="X56" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>347</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>348</v>
+      </c>
+      <c r="J57" t="s">
+        <v>349</v>
+      </c>
+      <c r="K57" t="s">
+        <v>350</v>
+      </c>
+      <c r="L57" t="s">
+        <v>351</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>318</v>
+      </c>
+      <c r="O57" t="s">
+        <v>67</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>352</v>
+      </c>
+      <c r="X57" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>355</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>356</v>
+      </c>
+      <c r="J58" t="s">
+        <v>357</v>
+      </c>
+      <c r="K58" t="s">
+        <v>358</v>
+      </c>
+      <c r="L58" t="s">
+        <v>359</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>318</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>360</v>
+      </c>
+      <c r="X58" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>363</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>364</v>
+      </c>
+      <c r="J59" t="s">
+        <v>365</v>
+      </c>
+      <c r="K59" t="s">
+        <v>366</v>
+      </c>
+      <c r="L59" t="s">
+        <v>367</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>318</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>269</v>
+      </c>
+      <c r="X59" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>369</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>370</v>
+      </c>
+      <c r="J60" t="s">
+        <v>365</v>
+      </c>
+      <c r="K60" t="s">
+        <v>371</v>
+      </c>
+      <c r="L60" t="s">
+        <v>372</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>318</v>
+      </c>
+      <c r="O60" t="s">
+        <v>74</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>269</v>
+      </c>
+      <c r="X60" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>374</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>375</v>
+      </c>
+      <c r="J61" t="s">
+        <v>365</v>
+      </c>
+      <c r="K61" t="s"/>
+      <c r="L61" t="s">
+        <v>229</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>261</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>269</v>
+      </c>
+      <c r="X61" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>376</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>377</v>
+      </c>
+      <c r="J62" t="s">
+        <v>378</v>
+      </c>
+      <c r="K62" t="s"/>
+      <c r="L62" t="s">
+        <v>229</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>261</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>269</v>
+      </c>
+      <c r="X62" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>379</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>380</v>
+      </c>
+      <c r="J63" t="s">
+        <v>381</v>
+      </c>
+      <c r="K63" t="s">
+        <v>382</v>
+      </c>
+      <c r="L63" t="s">
+        <v>383</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>261</v>
+      </c>
+      <c r="O63" t="s">
+        <v>74</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>384</v>
+      </c>
+      <c r="X63" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>387</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>388</v>
+      </c>
+      <c r="J64" t="s">
+        <v>389</v>
+      </c>
+      <c r="K64" t="s">
+        <v>390</v>
+      </c>
+      <c r="L64" t="s">
+        <v>391</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>261</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>392</v>
+      </c>
+      <c r="X64" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>395</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>396</v>
+      </c>
+      <c r="J65" t="s">
+        <v>397</v>
+      </c>
+      <c r="K65" t="s">
+        <v>398</v>
+      </c>
+      <c r="L65" t="s">
+        <v>399</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>261</v>
+      </c>
+      <c r="O65" t="s">
+        <v>143</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>400</v>
+      </c>
+      <c r="X65" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>403</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>404</v>
+      </c>
+      <c r="J66" t="s">
+        <v>405</v>
+      </c>
+      <c r="K66" t="s">
+        <v>406</v>
+      </c>
+      <c r="L66" t="s">
+        <v>407</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>261</v>
+      </c>
+      <c r="O66" t="s">
+        <v>67</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="s"/>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>408</v>
+      </c>
+      <c r="X66" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>411</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>412</v>
+      </c>
+      <c r="J67" t="s">
+        <v>413</v>
+      </c>
+      <c r="K67" t="s"/>
+      <c r="L67" t="s">
+        <v>229</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>261</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>414</v>
+      </c>
+      <c r="X67" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>66130</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>416</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>417</v>
+      </c>
+      <c r="J68" t="s">
+        <v>418</v>
+      </c>
+      <c r="K68" t="s">
+        <v>419</v>
+      </c>
+      <c r="L68" t="s">
+        <v>420</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>421</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>422</v>
+      </c>
+      <c r="X68" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>
